--- a/Riskmanagement/UseCaseTimetable.xlsx
+++ b/Riskmanagement/UseCaseTimetable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="23715" windowHeight="10035"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="15240" windowHeight="8100"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>UseCase-Timetable</t>
   </si>
@@ -54,43 +54,19 @@
     <t>Show Tour</t>
   </si>
   <si>
-    <t>1h</t>
-  </si>
-  <si>
-    <t>0,5h</t>
-  </si>
-  <si>
-    <t>0,25h</t>
-  </si>
-  <si>
-    <t>1,5h</t>
-  </si>
-  <si>
-    <t>12h</t>
-  </si>
-  <si>
-    <t>10h</t>
-  </si>
-  <si>
     <t>not tested</t>
   </si>
   <si>
-    <t>in progress / 8h</t>
-  </si>
-  <si>
     <t xml:space="preserve">in progress </t>
   </si>
   <si>
-    <t>9,5h (in progress)</t>
-  </si>
-  <si>
-    <t>12,75h</t>
-  </si>
-  <si>
-    <t>2,25h</t>
-  </si>
-  <si>
     <t>0,5h (in progress)</t>
+  </si>
+  <si>
+    <t>in progress / 11h</t>
+  </si>
+  <si>
+    <t>12,5h (in progress)</t>
   </si>
 </sst>
 </file>
@@ -370,6 +346,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -379,15 +358,40 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -686,7 +690,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,32 +699,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="15"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="15" t="s">
         <v>6</v>
       </c>
     </row>
@@ -728,17 +732,17 @@
       <c r="A3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>19</v>
-      </c>
       <c r="D3" s="8" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F3" s="9"/>
     </row>
@@ -746,17 +750,18 @@
       <c r="A4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>22</v>
+      <c r="B4" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="C4" s="1">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="1">
+        <f>SUM(B4:D4)</f>
+        <v>12.75</v>
       </c>
       <c r="F4" s="2"/>
     </row>
@@ -764,17 +769,18 @@
       <c r="A5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>23</v>
+      <c r="B5" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="1">
+        <f>SUM(B5:D5)</f>
+        <v>2.75</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -782,17 +788,18 @@
       <c r="A6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>16</v>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <f>SUM(B6:D6)</f>
+        <v>12.5</v>
       </c>
       <c r="F6" s="2"/>
     </row>
@@ -800,17 +807,17 @@
       <c r="A7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F7" s="4"/>
     </row>

--- a/Riskmanagement/UseCaseTimetable.xlsx
+++ b/Riskmanagement/UseCaseTimetable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="15240" windowHeight="8100"/>
+    <workbookView xWindow="600" yWindow="75" windowWidth="10515" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -16,67 +16,101 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
-  <si>
-    <t>UseCase-Timetable</t>
-  </si>
-  <si>
-    <t>Use Case</t>
-  </si>
-  <si>
-    <t>Documentation</t>
-  </si>
-  <si>
-    <t>Coding</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>FP</t>
-  </si>
-  <si>
-    <t>Take a Picture</t>
-  </si>
-  <si>
-    <t>View History</t>
-  </si>
-  <si>
-    <t>Delete Entry</t>
-  </si>
-  <si>
-    <t>Use Manual Calculator</t>
-  </si>
-  <si>
-    <t>Show Tour</t>
-  </si>
-  <si>
-    <t>not tested</t>
-  </si>
-  <si>
-    <t xml:space="preserve">in progress </t>
-  </si>
-  <si>
-    <t>0,5h (in progress)</t>
-  </si>
-  <si>
-    <t>in progress / 11h</t>
-  </si>
-  <si>
-    <t>12,5h (in progress)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+  <si>
+    <t>Identified</t>
+  </si>
+  <si>
+    <t>damage</t>
+  </si>
+  <si>
+    <t>mitgation strategy</t>
+  </si>
+  <si>
+    <t>person in charge</t>
+  </si>
+  <si>
+    <t>can't find suitable framework</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>Sascha Hug</t>
+  </si>
+  <si>
+    <t>time management/projekt management</t>
+  </si>
+  <si>
+    <t>Prob of occurence</t>
+  </si>
+  <si>
+    <t>Woche 1</t>
+  </si>
+  <si>
+    <t>Woche 2</t>
+  </si>
+  <si>
+    <t>Woche 3</t>
+  </si>
+  <si>
+    <t>Woche 4</t>
+  </si>
+  <si>
+    <t>Woche 5</t>
+  </si>
+  <si>
+    <t>Woche 6</t>
+  </si>
+  <si>
+    <t>Woche 7</t>
+  </si>
+  <si>
+    <t>Woche 8</t>
+  </si>
+  <si>
+    <t>extensive research</t>
+  </si>
+  <si>
+    <t>training of framework or using API</t>
+  </si>
+  <si>
+    <t>daily SCRUM</t>
+  </si>
+  <si>
+    <t>Tobias Lamm</t>
+  </si>
+  <si>
+    <t>Do Backups</t>
+  </si>
+  <si>
+    <t>Data loss of Blog content</t>
+  </si>
+  <si>
+    <t>detection rate of OCR too low</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -91,75 +125,23 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -178,150 +160,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -332,30 +172,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -398,6 +237,506 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>can't find suitable framework</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$B$2:$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Woche 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Woche 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Woche 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Woche 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Woche 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Woche 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Woche 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Woche 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$3:$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>detection rate of OCR too low</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$B$2:$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Woche 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Woche 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Woche 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Woche 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Woche 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Woche 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Woche 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Woche 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$4:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time management/projekt management</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$B$2:$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Woche 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Woche 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Woche 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Woche 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Woche 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Woche 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Woche 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Woche 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$5:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Data loss of Blog content</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$B$2:$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Woche 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Woche 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Woche 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Woche 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Woche 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Woche 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Woche 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Woche 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$6:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="147237504"/>
+        <c:axId val="147239680"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="147237504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Semester</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> 2</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="147239680"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="147239680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Probability of occurence</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="147237504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.2"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>583406</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>138906</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -687,145 +1026,248 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="9" width="11.42578125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" customWidth="1"/>
+    <col min="11" max="12" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="8"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="18"/>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>10</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="J4" s="2">
+        <v>7</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="J5" s="2">
+        <v>9</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
         <v>2</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>6</v>
+      <c r="K6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="C4" s="1">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E4" s="1">
-        <f>SUM(B4:D4)</f>
-        <v>12.75</v>
-      </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E5" s="1">
-        <f>SUM(B5:D5)</f>
-        <v>2.75</v>
-      </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1">
-        <v>10.5</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <f>SUM(B6:D6)</f>
-        <v>12.5</v>
-      </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="4"/>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
